--- a/generatedProject/Marc SORIA.xlsx
+++ b/generatedProject/Marc SORIA.xlsx
@@ -2,23 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboufares\Desktop\suiviProjetG\generatedProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboufares\Desktop\Nouveau dossier\suiviProjetG\generatedProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0990161-11E7-4366-BD30-EFFADC69652A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB845121-842E-4824-80BB-8241E5DAA470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D969DD19-80E4-4D64-A272-49E7E1A7C23A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E96DCA49-C4D8-43C9-8B0A-F1AFD7D2C177}"/>
   </bookViews>
   <sheets>
-    <sheet name="S02" sheetId="1" r:id="rId1"/>
-    <sheet name="BDD" sheetId="2" r:id="rId2"/>
+    <sheet name="S01" sheetId="1" r:id="rId1"/>
+    <sheet name="S02" sheetId="2" r:id="rId2"/>
+    <sheet name="S03" sheetId="3" r:id="rId3"/>
+    <sheet name="S04" sheetId="4" r:id="rId4"/>
+    <sheet name="BDD" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="TACHES">[2]SOURCE!#REF!</definedName>
@@ -44,24 +47,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">FEUILLE DE POINTAGE </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="74">
   <si>
     <t>SYNTHESE SEMAINE</t>
   </si>
   <si>
-    <t>SYNTHESE FONCTION CMN</t>
-  </si>
-  <si>
-    <t>SYNTHESE FONCTION AUTRE</t>
-  </si>
-  <si>
     <t>Nom:</t>
-  </si>
-  <si>
-    <t>SYNTHESE ENSEMBLE CMN</t>
   </si>
   <si>
     <t>FORMATION</t>
@@ -70,7 +61,7 @@
     <t>Semaine:</t>
   </si>
   <si>
-    <t>S02</t>
+    <t>S01</t>
   </si>
   <si>
     <t>06 SDD</t>
@@ -82,7 +73,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Du 08 au 12 Janvier 2024</t>
+    <t>Du 01 au 05 Janvier 2024</t>
   </si>
   <si>
     <t>06 INDUS</t>
@@ -133,16 +124,10 @@
     <t>CARLINGAGE</t>
   </si>
   <si>
-    <t>14H</t>
-  </si>
-  <si>
     <t>08 SDD</t>
   </si>
   <si>
     <t>PANNE INFORMATIQUE</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>08 INDUS</t>
@@ -154,16 +139,13 @@
     <t>09 SDD</t>
   </si>
   <si>
-    <t>15H</t>
-  </si>
-  <si>
     <t>09 INDUS</t>
   </si>
   <si>
-    <t>14B SDD</t>
+    <t>SYNTHESE FONCTION AUTRE</t>
   </si>
   <si>
-    <t>22</t>
+    <t>14B SDD</t>
   </si>
   <si>
     <t>14B INDUS</t>
@@ -223,6 +205,24 @@
     <t>24 INDUS</t>
   </si>
   <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Du 08 au 12 Janvier 2024</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Du 15 au 19 Janvier 2024</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Du 22 au 26 Janvier 2024</t>
+  </si>
+  <si>
     <t>MISE EN DONNEE</t>
   </si>
   <si>
@@ -235,10 +235,16 @@
     <t>ENSEMBLE PH</t>
   </si>
   <si>
+    <t>SYNTHESE ENSEMBLE CMN</t>
+  </si>
+  <si>
     <t>COLLABORATEURS</t>
   </si>
   <si>
     <t>Prénom - NOM</t>
+  </si>
+  <si>
+    <t>SYNTHESE FONCTION CMN</t>
   </si>
   <si>
     <t xml:space="preserve">STRUCTURE </t>
@@ -247,7 +253,7 @@
     <t>Marc SORIA</t>
   </si>
   <si>
-    <t>PRJ</t>
+    <t>TEST</t>
   </si>
   <si>
     <t>x</t>
@@ -291,7 +297,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,6 +304,7 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,16 +478,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -496,77 +517,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -657,10 +607,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -728,10 +708,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -995,21 +1001,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,22 +1026,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1050,38 +1061,28 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,19 +1091,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1110,19 +1113,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1139,11 +1134,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1162,25 +1171,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1210,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,89 +1252,89 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1335,7 +1344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1379,17 +1388,17 @@
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE45C494-554A-4443-83BE-ACB229D99728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6F04F5-3351-49C4-A48A-E99C8BB67D92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1418,187 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="148590" y="74295"/>
-          <a:ext cx="1242060" cy="672465"/>
+          <a:ext cx="1263015" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA34A93-D6B2-46F3-B6E7-DB4A03868A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1095" r="1219" b="3294"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="148590" y="74295"/>
+          <a:ext cx="1263015" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E2B012-B72A-4BA1-B7E2-50BECC8043A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1095" r="1219" b="3294"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="148590" y="74295"/>
+          <a:ext cx="1263015" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EB40F7-0E9D-4A38-A997-634CB20407E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1095" r="1219" b="3294"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="148590" y="74295"/>
+          <a:ext cx="1263015" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2138,33 +2327,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DA4B65-620D-47E4-9A32-5AC03F4B8F28}">
-  <dimension ref="A1:U34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347EF64-4522-4F6A-906F-8F282C3D5E29}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="21" ySplit="34" topLeftCell="V56" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <pane xSplit="21" ySplit="35" topLeftCell="V61" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2187,23 +2379,24 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="F2" s="2" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Marc SORIA</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2212,21 +2405,21 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2235,7 +2428,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2248,30 +2441,20 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="11"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2281,35 +2464,28 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="9"/>
+      <c r="M5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="15">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=FORMATION")</f>
-        <v>0</v>
-      </c>
+      <c r="P5" s="9" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v>SYNTHESE FONCTION TEST</v>
+      </c>
+      <c r="Q5" s="10"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="17">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=FORMATION")</f>
-        <v>0</v>
-      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2320,38 +2496,31 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=06",$E$10:$E$32,"=SDD")</f>
-        <v>0</v>
-      </c>
+      <c r="M6" s="9" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v>SYNTHESE ENSEMBLE TEST</v>
+      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=GESTION PROJET")</f>
+      <c r="P6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
         <v>0</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=GESTION PROJET")</f>
-        <v>0</v>
-      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2362,269 +2531,242 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=06",$E$10:$E$32,"=INDUS")</f>
+      <c r="M7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=REUNION")</f>
+      <c r="P7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
         <v>0</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=REUNION")</f>
-        <v>0</v>
-      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="N9" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="Q9" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="14" t="s">
+      <c r="D10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=07",$E$10:$E$32,"=SDD")</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="18" t="s">
+      <c r="E10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=STRUCTURE")</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=STRUCTURE")</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="25" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="N10" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="Q10" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="N11" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="20" t="s">
+      <c r="Q11" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=07",$E$10:$E$32,"=INDUS")</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="32" t="s">
+      <c r="N12" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="33">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=CARLINGAGE")</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=CARLINGAGE")</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41">
-        <f t="shared" ref="K10:K32" si="0">SUM(F10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=08",$E$10:$E$32,"=SDD")</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="33">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=PANNE INFORMATIQUE")</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="19">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=PANNE INFORMATIQUE")</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=08",$E$10:$E$32,"=INDUS")</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="43">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=ATTENTE")</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="44">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=ATTENTE")</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36">
-        <v>17</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=09",$E$10:$E$32,"=SDD")</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="40">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="44">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=09",$E$10:$E$32,"=INDUS")</f>
+      <c r="M13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O13" s="1"/>
@@ -2635,277 +2777,312 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14B",$E$10:$E$32,"=SDD")</f>
+      <c r="M14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="44"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14B",$E$10:$E$32,"=INDUS")</f>
+        <v>32</v>
+      </c>
+      <c r="N15" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="46">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14H",$E$10:$E$32,"=SDD")</f>
+      <c r="M16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14H",$E$10:$E$32,"=INDUS")</f>
+      <c r="M17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15B",$E$10:$E$32,"=SDD")</f>
+      <c r="M18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="P18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15B",$E$10:$E$32,"=INDUS")</f>
+      <c r="M19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="P19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15H",$E$10:$E$32,"=SDD")</f>
+      <c r="M20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="44">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15H",$E$10:$E$32,"=INDUS")</f>
+      <c r="M21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="P21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="42">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16B",$E$10:$E$32,"=SDD")</f>
+      <c r="M22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O22" s="1"/>
@@ -2916,27 +3093,27 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16B",$E$10:$E$32,"=INDUS")</f>
+      <c r="M23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O23" s="1"/>
@@ -2947,27 +3124,27 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16H",$E$10:$E$32,"=SDD")</f>
+      <c r="M24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O24" s="1"/>
@@ -2978,27 +3155,27 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16H",$E$10:$E$32,"=INDUS")</f>
+      <c r="M25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O25" s="1"/>
@@ -3009,27 +3186,27 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=17",$E$10:$E$32,"=SDD")</f>
+      <c r="M26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O26" s="1"/>
@@ -3040,27 +3217,27 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41">
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=17",$E$10:$E$32,"=INDUS")</f>
+      <c r="M27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O27" s="1"/>
@@ -3071,27 +3248,27 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=22",$E$10:$E$32,"=SDD")</f>
+      <c r="M28" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O28" s="1"/>
@@ -3102,27 +3279,27 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41">
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="44">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=22",$E$10:$E$32,"=INDUS")</f>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O29" s="1"/>
@@ -3133,27 +3310,27 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=23",$E$10:$E$32,"=SDD")</f>
+      <c r="M30" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O30" s="1"/>
@@ -3164,27 +3341,27 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41">
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="21">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=23",$E$10:$E$32,"=INDUS")</f>
+      <c r="M31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O31" s="1"/>
@@ -3195,27 +3372,27 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="49">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="15">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=24",$E$10:$E$32,"=SDD")</f>
+      <c r="M32" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O32" s="1"/>
@@ -3226,44 +3403,27 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="53">
-        <f>SUM(F10:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="54">
-        <f>SUM(G10:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="54">
-        <f>SUM(H10:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="54">
-        <f>SUM(I10:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="55">
-        <f>SUM(J10:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="56">
-        <f>SUM(F33:J33)</f>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="N33" s="44">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=24",$E$10:$E$32,"=INDUS")</f>
+      <c r="M33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O33" s="1"/>
@@ -3274,21 +3434,46 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="54">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="55">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="55">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="56">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="57">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3297,42 +3482,65 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="F2:N2"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42EEE6A7-4856-411D-93F7-327981CF6355}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D07E7666-818C-479D-A6F6-AE9243EB06C2}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08ACEB47-22E0-458E-AF38-63CA693078A0}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB1FC927-C34B-46AE-84F0-A9D2C0A5D988}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0AD222C-2727-427B-879D-CFCA5A99E155}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{399F527E-A01C-4760-937A-4EB0897C125F}">
-          <x14:formula1>
-            <xm:f>BDD!$C$3:$C$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10:C32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD26D99D-8442-4212-AD86-8299C209FF01}">
-          <x14:formula1>
-            <xm:f>BDD!$E$3:$E$33</xm:f>
-          </x14:formula1>
-          <xm:sqref>D10:D32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BB32B81-F6B5-49AC-81F3-77F136D88A6A}">
-          <x14:formula1>
-            <xm:f>BDD!$C$20:$C$33</xm:f>
-          </x14:formula1>
-          <xm:sqref>E10:E32</xm:sqref>
+          <xm:sqref>B11:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3341,898 +3549,4565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1265092-E16F-415E-A462-894430BD54A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8516FD-278D-4F01-A9C1-CCA0B2D1A61B}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V58" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Marc SORIA</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="9" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v>SYNTHESE FONCTION TEST</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="9" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v>SYNTHESE ENSEMBLE TEST</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="40">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="46">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="42">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="54">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="55">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="55">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="56">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="57">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{429772D1-37E0-4245-BCD2-90776420C4FD}">
+          <x14:formula1>
+            <xm:f>BDD!$A$3:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{76C9CD97-EFF9-4D62-8FA8-4C62671F712D}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DDFEFA1-37CA-4642-B716-2C0B76568547}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB8E8C48-5FE7-446E-9B60-BDE9DD3CFB9D}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F39D7E-CADB-4FAA-AF5F-109C883F61A3}">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V61" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Marc SORIA</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="9" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v>SYNTHESE FONCTION TEST</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="9" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v>SYNTHESE ENSEMBLE TEST</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="40">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="46">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="42">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="54">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="55">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="55">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="56">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="57">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FD7DCEE-EBC1-438D-890F-02FE6225E14E}">
+          <x14:formula1>
+            <xm:f>BDD!$A$3:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F684D4D-614E-46BF-B996-93119E732FBC}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{566B8E5A-8B9C-48E1-8118-19FFD7902355}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA999BBD-13A0-4932-BC16-B8B2FE3EE636}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB65519-E6FA-42DF-A6ED-1EEA2F9B07A0}">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V58" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Marc SORIA</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="9" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v>SYNTHESE FONCTION TEST</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="9" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v>SYNTHESE ENSEMBLE TEST</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="40">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="46">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="42">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="18">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="14">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="54">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="55">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="55">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="56">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="57">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="42">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25F08006-F8EC-472E-BE59-001C4CB14B3B}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5DEBE92-8949-4094-A235-DDA25BA27A78}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{253654B5-2DD1-4258-827C-B8C70046FE16}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23B3B5C7-E537-4D00-9222-3D2D9735A9F3}">
+          <x14:formula1>
+            <xm:f>BDD!$A$3:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBA2040-BB6E-4175-8AFD-DC6FEED05CFF}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="62"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="63" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71" t="str">
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="str">
         <f>[1]SOURCE!E3</f>
         <v>06</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="str">
+      <c r="F3" s="66"/>
+      <c r="G3" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="74"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="str">
         <f>[1]SOURCE!A4</f>
         <v>AUTRE</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="str">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="str">
         <f>[1]SOURCE!E4</f>
         <v>07</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="str">
+      <c r="F4" s="66"/>
+      <c r="G4" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69" t="str">
         <f>[1]SOURCE!A5</f>
         <v>ABSENT</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76" t="str">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77" t="str">
         <f>[1]SOURCE!E5</f>
         <v>08</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76" t="str">
+      <c r="F5" s="61"/>
+      <c r="G5" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77" t="str">
         <f>[1]SOURCE!E6</f>
         <v>09</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="76" t="str">
+      <c r="F6" s="61"/>
+      <c r="G6" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="69"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="77" t="str">
         <f>[1]SOURCE!E7</f>
         <v>14B</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="76" t="str">
+      <c r="F7" s="61"/>
+      <c r="G7" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77" t="str">
         <f>[1]SOURCE!E8</f>
         <v>14H</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="76" t="str">
+      <c r="F8" s="61"/>
+      <c r="G8" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="69"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="77" t="str">
         <f>[1]SOURCE!E9</f>
         <v>15B</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="76" t="str">
+      <c r="F9" s="61"/>
+      <c r="G9" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77" t="str">
         <f>[1]SOURCE!E10</f>
         <v>15H</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="76" t="str">
+      <c r="F10" s="61"/>
+      <c r="G10" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="69"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77" t="str">
         <f>[1]SOURCE!E11</f>
         <v>16B</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="76" t="str">
+      <c r="F11" s="66"/>
+      <c r="G11" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="77" t="str">
         <f>[1]SOURCE!E12</f>
         <v>16H</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="76" t="str">
+      <c r="F12" s="66"/>
+      <c r="G12" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="82"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="77" t="str">
         <f>[1]SOURCE!E13</f>
         <v>17</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="76" t="str">
+      <c r="F13" s="66"/>
+      <c r="G13" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="77" t="str">
         <f>[1]SOURCE!E14</f>
         <v>22</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="76" t="str">
+      <c r="F14" s="61"/>
+      <c r="G14" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="84"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="77" t="str">
         <f>[1]SOURCE!E15</f>
         <v>23</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="76" t="str">
+      <c r="F15" s="61"/>
+      <c r="G15" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="77" t="str">
         <f>[1]SOURCE!E16</f>
         <v>24</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="76" t="str">
+      <c r="F16" s="61"/>
+      <c r="G16" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="86"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="77" t="str">
         <f>[1]SOURCE!E17</f>
         <v>AUTRE</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="76">
-        <v>0</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="F17" s="61"/>
+      <c r="G17" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="86"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="77">
+        <v>0</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="str">
+      <c r="B20" s="88"/>
+      <c r="C20" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="88"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="76" t="str">
         <f>[1]SOURCE!A21</f>
         <v>Alexandra VAUGRENARD</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="str">
+      <c r="B21" s="88"/>
+      <c r="C21" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="88"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="str">
         <f>[1]SOURCE!A22</f>
         <v>Brigitte VELLY</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="str">
+      <c r="B22" s="88"/>
+      <c r="C22" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="88"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="76" t="str">
         <f>[1]SOURCE!A23</f>
         <v>Jean-Marie COLONNE</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="str">
+      <c r="B23" s="88"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="76" t="str">
         <f>[1]SOURCE!A24</f>
         <v>Martin BERTHO</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="str">
+      <c r="B24" s="88"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="76" t="str">
         <f>[1]SOURCE!A25</f>
         <v>Olivier GONSE</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="str">
+      <c r="B25" s="88"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="76" t="str">
         <f>[1]SOURCE!A26</f>
         <v>Philippe HAYS</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="str">
+      <c r="B26" s="88"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="76" t="str">
         <f>[1]SOURCE!A27</f>
         <v>Philippe LE MESTRE</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="str">
+      <c r="B27" s="88"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="76" t="str">
         <f>[1]SOURCE!A28</f>
         <v>Pierre GRAFFION</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75" t="str">
+      <c r="B28" s="88"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="76" t="str">
         <f>[1]SOURCE!A29</f>
         <v>Sébastien LAROSE-BLIN</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="str">
+      <c r="B29" s="61"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="76" t="str">
         <f>[1]SOURCE!A30</f>
         <v>Tanguy MONFORT</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="str">
+      <c r="B30" s="61"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="76" t="str">
         <f>[1]SOURCE!A31</f>
         <v>Yohann JAFFREDO</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="str">
+      <c r="B31" s="61"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="76" t="str">
         <f>[1]SOURCE!A32</f>
         <v>Jean-Michel GOURLAN</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="72" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="97"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="76"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="76"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="73"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="77" t="s">
+      <c r="H34" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="76"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100" t="s">
+      <c r="H35" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="76"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="105" t="s">
+      <c r="H36" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="76"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="76"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="76"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="76"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="105" t="s">
+      <c r="H40" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="76"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="97"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="76"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="73"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="77" t="s">
+      <c r="H42" s="74"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="76"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="76"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="100" t="s">
+      <c r="H44" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="76"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="105" t="s">
+      <c r="H45" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="76"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="76"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="76"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="76"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="107"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="107"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="107"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="108"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="109"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
+      <c r="H49" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="108"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="108"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="108"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="108"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="108"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="108"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="109"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="110"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/generatedProject/Marc SORIA.xlsx
+++ b/generatedProject/Marc SORIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboufares\Desktop\Nouveau dossier\suiviProjetG\generatedProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB845121-842E-4824-80BB-8241E5DAA470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F01B12AD-AC0A-4679-96FF-78627EF60F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E96DCA49-C4D8-43C9-8B0A-F1AFD7D2C177}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9060" xr2:uid="{2AF895F0-0C6E-4D4C-AFA6-47E79DB8405D}"/>
   </bookViews>
   <sheets>
     <sheet name="S01" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6F04F5-3351-49C4-A48A-E99C8BB67D92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2FA205-6253-41E1-8E38-2FB62FA27AE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA34A93-D6B2-46F3-B6E7-DB4A03868A7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE70F6-6D9B-4A70-8534-FADCF7BAAE2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E2B012-B72A-4BA1-B7E2-50BECC8043A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97290B15-6084-4257-9209-DA9691C180D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1578,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EB40F7-0E9D-4A38-A997-634CB20407E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2520750-E2E2-4B0C-9590-CEC7BAB8E4F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347EF64-4522-4F6A-906F-8F282C3D5E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA21F20-8D68-4B5B-9005-CAA00A38A991}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -3518,25 +3518,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D07E7666-818C-479D-A6F6-AE9243EB06C2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A99F662D-63B2-4E2A-AD07-504A322929B2}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
           <xm:sqref>E11:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08ACEB47-22E0-458E-AF38-63CA693078A0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D81FB63C-3611-41A8-B8DD-8CD18003C437}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB1FC927-C34B-46AE-84F0-A9D2C0A5D988}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{863757F2-4E10-4177-934A-2F2573F7FB4F}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0AD222C-2727-427B-879D-CFCA5A99E155}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB248080-20E6-409F-A561-E4CA5E4E20C7}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
@@ -3549,7 +3549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8516FD-278D-4F01-A9C1-CCA0B2D1A61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F618C6-9F52-43EC-B41C-AE13CDC76C6A}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -4740,25 +4740,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{429772D1-37E0-4245-BCD2-90776420C4FD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{361F49A8-C9F6-4DEE-AE6D-C4CF2832C9D2}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>B11:B33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{76C9CD97-EFF9-4D62-8FA8-4C62671F712D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{519DAAC2-E675-4885-8127-7CA1C263B77B}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DDFEFA1-37CA-4642-B716-2C0B76568547}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{794D902E-6DEE-4B4D-A0F6-C8CF398EB961}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB8E8C48-5FE7-446E-9B60-BDE9DD3CFB9D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF597853-CA0B-4403-B940-3D64789C4761}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
@@ -4771,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F39D7E-CADB-4FAA-AF5F-109C883F61A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FD315-64AB-46D2-B5A1-CFB79BE1F52E}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -5962,25 +5962,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FD7DCEE-EBC1-438D-890F-02FE6225E14E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EAE09CD0-3D6D-4F8D-9794-4E416D125A30}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>B11:B33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F684D4D-614E-46BF-B996-93119E732FBC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B72D2B8D-C969-45B2-ABD0-D4B2D67479C7}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{566B8E5A-8B9C-48E1-8118-19FFD7902355}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{171926BD-1C7B-4D87-931B-133A8355B70A}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA999BBD-13A0-4932-BC16-B8B2FE3EE636}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4446540D-FFB8-4DBE-B985-7D4421224EAA}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
@@ -5993,7 +5993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB65519-E6FA-42DF-A6ED-1EEA2F9B07A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DC6CCB-361F-4D4D-81A3-36F70C38DD10}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
@@ -7184,25 +7184,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25F08006-F8EC-472E-BE59-001C4CB14B3B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6051BE0B-23A0-4757-BBEA-FE3D9E48E01A}">
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
           <xm:sqref>E11:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5DEBE92-8949-4094-A235-DDA25BA27A78}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{877808A7-B725-4B34-831D-EAF52F174893}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{253654B5-2DD1-4258-827C-B8C70046FE16}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B82857B8-43FB-4A21-8058-62538D18C5A8}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23B3B5C7-E537-4D00-9222-3D2D9735A9F3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E5C04A4-EC00-4882-A792-EA1A05294AE9}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
@@ -7215,7 +7215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBA2040-BB6E-4175-8AFD-DC6FEED05CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AB31B-31CB-49A6-BC16-6095D0F33865}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
